--- a/Output/Testdataexcel.xlsx
+++ b/Output/Testdataexcel.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,162 +424,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>python</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>java</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Duration</t>
+          <t>sql</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Timing</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>sathish</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>pyton</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>daily</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>kumar</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>pyton</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>daily</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Testing</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>daily</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sara</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>pyton</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Weekend</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Heera</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SQL</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>daily</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>C#</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Weekend</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Balaji</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>java</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>daily</t>
+          <t>manual</t>
         </is>
       </c>
     </row>
